--- a/06 practice-myself/研究笔记/07 图像处理论文研究.xlsx
+++ b/06 practice-myself/研究笔记/07 图像处理论文研究.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB21DC8B-EC2A-458C-99D5-DFBDE75C48F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35C9DD-06DA-45F7-85F5-9B4A153AB680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>paper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,27 @@
 然后利用采集到的样本视频中的roi和非roi训练支持向量机(SVM)分类器，从输入视频中识别出被分割的三维块。
 为了提高计算效率，采用多处理器CPU实现并行计算。
 将该算法与现有的基于纹理的超声图像灰度共生矩阵(GLCM)、局部二值模式(LBP)、小波等方法进行了比较，实验结果表明，该算法具有处理噪声超声图像和分割精度较高的roi的优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This  article  presents  a  novel  clustering  method  called  Multi-scale  Gaussian  Kernel  induced  Fuzzy  C  -means  (MsGKFCM)  for  segmentation  of  lesions  in  automatically  extracted  Region  of  Interest  (ROI)  in  US  to  delimit  the  border  of  the  mass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">01 web-of-science-Ultrasound  image  segmentation  using  a  novel  multi-scale  Gaussian  kernel  fuzzy  clustering  and  multi-scale  vector  field  convolution </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further,  a  hybrid  approach  using  MsGKFCM  and  Multi-scale  Vector  Field  Convolution  (MsVFC)  is  proposed  to  obtain  an  accurate  lesion  margin  in  breast  US  images.  Initially,  the  images  are  filtered  using  speckle  reducing  anisotropic  diffusion  (SRAD)  technique.  Subsequently,  MsGKFCM  is  applied  on  filtered  images  to  segment  the  mass  and  detect  an  appropriate  cluster  center.The  detected  cluster  center  is  further  used  by  MsVFC  to  determine  the  accurate  lesion  margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> we propose to use convolutional neural networks (CNNs) for
+segmenting breast ultrasound images into four major tissues: skin, fibroglandular tissue, mass, and fatty tissue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 Medical breast ultrasound image segmentation by machine learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -599,17 +620,27 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:6" ht="173" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
